--- a/static/files/subject_data.xlsx
+++ b/static/files/subject_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Anthony Mamauag\Desktop\Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenze\Desktop\PROF LOADING CAPSTONE PROJECT\ClassScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F91AC0-B9B6-4133-92D0-36B5B85F5EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A142928F-E48B-4CB1-8C91-281A9E8675DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="123">
   <si>
     <t>COURSE CODE</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
     <t>COURSE &amp; SEC.</t>
   </si>
   <si>
-    <t>DAY AND TIME</t>
-  </si>
-  <si>
     <t>FACULTY</t>
   </si>
   <si>
@@ -354,23 +348,59 @@
     <t>I-D BSFM (ABM)</t>
   </si>
   <si>
-    <t>7:30 AM - 9:00 AM</t>
-  </si>
-  <si>
-    <t>9:00 AM - 10:30 AM</t>
-  </si>
-  <si>
-    <t>10:30 AM -12:00 PM</t>
-  </si>
-  <si>
-    <t>10:30 AM - 12:00 PM</t>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
+  </si>
+  <si>
+    <t>TESTING ONLY 1</t>
+  </si>
+  <si>
+    <t>TESTING ONLY 2</t>
+  </si>
+  <si>
+    <t>TESTING ONLY 3</t>
+  </si>
+  <si>
+    <t>COURSE NAME</t>
+  </si>
+  <si>
+    <t>YEAR LEVEL</t>
+  </si>
+  <si>
+    <t>FIRST YEAR - BS OM</t>
+  </si>
+  <si>
+    <t>SECOND YEAR - BS OM</t>
+  </si>
+  <si>
+    <t>THIRD YEAR - BS OM</t>
+  </si>
+  <si>
+    <t>FOURTH YEAR - BS OM</t>
+  </si>
+  <si>
+    <t>FIRST YEAR - BSBA HRDM</t>
+  </si>
+  <si>
+    <t>SECOND YEAR - BSBA HRDM</t>
+  </si>
+  <si>
+    <t>THIRD YEAR - BSBA HRDM</t>
+  </si>
+  <si>
+    <t>FOURTH YEAR - BSBA HRDM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +441,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,7 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,8 +561,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,61 +853,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10" style="13" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="14" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
@@ -873,18 +917,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -892,18 +938,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -911,35 +959,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4">
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
     </row>
@@ -948,18 +998,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4">
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,18 +1019,20 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4">
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="4">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,26 +1040,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4">
+      <c r="C11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="4">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
     </row>
@@ -1014,18 +1070,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,18 +1091,20 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,26 +1112,28 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
     </row>
@@ -1080,18 +1142,20 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1099,18 +1163,20 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,35 +1184,39 @@
         <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="5"/>
     </row>
@@ -1155,19 +1225,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="4">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1176,28 +1246,28 @@
         <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="4">
+        <v>27</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="5"/>
     </row>
@@ -1206,19 +1276,19 @@
         <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1227,82 +1297,82 @@
         <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>17</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>18</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="3"/>
       <c r="G30" s="5"/>
     </row>
@@ -1311,19 +1381,19 @@
         <v>19</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -1332,37 +1402,37 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3"/>
       <c r="G34" s="5"/>
     </row>
@@ -1371,18 +1441,20 @@
         <v>21</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1390,26 +1462,28 @@
         <v>22</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="4">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3"/>
       <c r="G37" s="5"/>
     </row>
@@ -1418,18 +1492,20 @@
         <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="4">
-        <v>3</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1437,26 +1513,28 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="4">
-        <v>3</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3"/>
       <c r="G40" s="5"/>
     </row>
@@ -1465,18 +1543,20 @@
         <v>25</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,35 +1564,37 @@
         <v>26</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="3"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="3"/>
       <c r="G44" s="5"/>
     </row>
@@ -1521,18 +1603,20 @@
         <v>27</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,18 +1624,20 @@
         <v>28</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="4">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1559,26 +1645,28 @@
         <v>29</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="3"/>
       <c r="G48" s="5"/>
     </row>
@@ -1587,18 +1675,20 @@
         <v>30</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,18 +1696,20 @@
         <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="4">
-        <v>3</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1625,26 +1717,28 @@
         <v>32</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="4">
-        <v>3</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="3"/>
       <c r="G52" s="5"/>
     </row>
@@ -1653,18 +1747,20 @@
         <v>33</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="4">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="3"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1672,18 +1768,20 @@
         <v>34</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="4">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1691,44 +1789,46 @@
         <v>36</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="4">
-        <v>3</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="3"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="3"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="3"/>
       <c r="G58" s="5"/>
     </row>
@@ -1737,18 +1837,20 @@
         <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="4">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="4">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,18 +1858,20 @@
         <v>38</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="4">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,35 +1879,37 @@
         <v>39</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="4">
-        <v>3</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="4">
+        <v>3</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="3"/>
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="3"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="3"/>
       <c r="G63" s="5"/>
     </row>
@@ -1812,18 +1918,20 @@
         <v>40</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="4">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="3"/>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,18 +1939,20 @@
         <v>41</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="4">
-        <v>3</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="3"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,35 +1960,37 @@
         <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="4">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="4">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="3"/>
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="3"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="3"/>
       <c r="G68" s="5"/>
     </row>
@@ -1887,18 +1999,20 @@
         <v>43</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="4">
-        <v>3</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,18 +2020,20 @@
         <v>44</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="4">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,26 +2041,28 @@
         <v>45</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="4">
-        <v>3</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="3"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="3"/>
       <c r="G72" s="5"/>
     </row>
@@ -1953,18 +2071,20 @@
         <v>46</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" s="4">
-        <v>3</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,18 +2092,20 @@
         <v>47</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="4">
-        <v>3</v>
-      </c>
-      <c r="E74" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="3"/>
+      <c r="C74" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,35 +2113,37 @@
         <v>48</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="4">
-        <v>3</v>
-      </c>
-      <c r="E75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="D75" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="3"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="3"/>
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="3"/>
       <c r="G77" s="5"/>
     </row>
@@ -2028,18 +2152,20 @@
         <v>49</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="4">
+        <v>3</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,18 +2173,20 @@
         <v>50</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" s="4">
-        <v>3</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="4">
+        <v>3</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2066,18 +2194,20 @@
         <v>51</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="4">
-        <v>3</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="4">
+        <v>3</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2085,26 +2215,28 @@
         <v>52</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="4">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F81" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="3"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="3"/>
       <c r="G82" s="5"/>
     </row>
@@ -2113,18 +2245,20 @@
         <v>53</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="4">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="4">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,18 +2266,20 @@
         <v>54</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="4">
-        <v>3</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,18 +2287,20 @@
         <v>55</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="4">
-        <v>3</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,26 +2308,28 @@
         <v>56</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="4">
-        <v>3</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="4">
+        <v>3</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="3"/>
       <c r="G87" s="5"/>
     </row>
@@ -2198,18 +2338,20 @@
         <v>57</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="4">
-        <v>3</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2217,18 +2359,20 @@
         <v>58</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D89" s="4">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="4">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2236,18 +2380,20 @@
         <v>59</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="4">
-        <v>3</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="4">
+        <v>3</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,26 +2401,28 @@
         <v>60</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="4">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F91" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="3"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="3"/>
       <c r="G92" s="5"/>
     </row>
@@ -2283,18 +2431,20 @@
         <v>61</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" s="4">
-        <v>3</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2302,18 +2452,20 @@
         <v>62</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="4">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,18 +2473,20 @@
         <v>63</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D95" s="4">
-        <v>3</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="4">
+        <v>3</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,26 +2494,28 @@
         <v>64</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D96" s="4">
-        <v>3</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F96" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="3"/>
       <c r="G97" s="5"/>
     </row>
@@ -2368,18 +2524,20 @@
         <v>65</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="4">
-        <v>3</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="4">
+        <v>3</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,18 +2545,20 @@
         <v>66</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" s="4">
-        <v>3</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2406,18 +2566,20 @@
         <v>67</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D100" s="4">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" s="4">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2425,26 +2587,28 @@
         <v>68</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" s="4">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="4">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="3"/>
       <c r="G102" s="5"/>
     </row>
@@ -2453,18 +2617,20 @@
         <v>69</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="4">
-        <v>3</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="4">
+        <v>3</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2472,18 +2638,20 @@
         <v>70</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" s="4">
-        <v>3</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="4">
+        <v>3</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,18 +2659,20 @@
         <v>71</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" s="4">
-        <v>3</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,35 +2680,37 @@
         <v>72</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="4">
-        <v>3</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F106" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="4"/>
       <c r="F107" s="3"/>
       <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="4"/>
       <c r="F108" s="3"/>
       <c r="G108" s="5"/>
     </row>
@@ -2547,18 +2719,20 @@
         <v>73</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D109" s="4">
-        <v>3</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F109" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" s="4">
+        <v>3</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2566,18 +2740,20 @@
         <v>74</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" s="4">
-        <v>3</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F110" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,27 +2761,29 @@
         <v>75</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D111" s="4">
-        <v>3</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F111" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="4">
+        <v>3</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="5"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="3"/>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -2613,18 +2791,20 @@
         <v>76</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D113" s="4">
-        <v>3</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F113" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" s="4">
+        <v>3</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -2632,18 +2812,20 @@
         <v>77</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D114" s="4">
-        <v>3</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F114" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" s="4">
+        <v>3</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,26 +2833,28 @@
         <v>78</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D115" s="4">
-        <v>3</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F115" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="4">
+        <v>3</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="3"/>
       <c r="G116" s="5"/>
     </row>
@@ -2679,18 +2863,20 @@
         <v>79</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D117" s="4">
-        <v>3</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F117" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" s="4">
+        <v>3</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,18 +2884,20 @@
         <v>80</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D118" s="4">
-        <v>3</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F118" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="4">
+        <v>3</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -2717,26 +2905,28 @@
         <v>81</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="4">
-        <v>3</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F119" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" s="4">
+        <v>3</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="3"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="3"/>
       <c r="G120" s="5"/>
     </row>
@@ -2745,18 +2935,20 @@
         <v>82</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D121" s="4">
-        <v>3</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E121" s="4">
+        <v>3</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -2764,18 +2956,20 @@
         <v>83</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D122" s="4">
-        <v>3</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E122" s="4">
+        <v>3</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -2783,18 +2977,20 @@
         <v>84</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D123" s="4">
-        <v>3</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E123" s="4">
+        <v>3</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -2802,44 +2998,46 @@
         <v>85</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D124" s="4">
-        <v>3</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F124" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="4">
+        <v>3</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="3"/>
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="4"/>
       <c r="F126" s="3"/>
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="3"/>
       <c r="G127" s="5"/>
     </row>
@@ -2848,18 +3046,18 @@
         <v>1</v>
       </c>
       <c r="B128" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" s="28"/>
+      <c r="E128" s="4">
+        <v>3</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D128" s="4">
-        <v>3</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F128" s="3"/>
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,18 +3065,18 @@
         <v>2</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C129" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D129" s="28"/>
+      <c r="E129" s="4">
+        <v>3</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D129" s="4">
-        <v>3</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F129" s="3"/>
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -2886,18 +3084,18 @@
         <v>3</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D130" s="4">
-        <v>3</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F130" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130" s="28"/>
+      <c r="E130" s="4">
+        <v>3</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,27 +3103,27 @@
         <v>4</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D131" s="4">
-        <v>3</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" s="28"/>
+      <c r="E131" s="4">
+        <v>3</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="9"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="3"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="7"/>
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -2933,18 +3131,18 @@
         <v>5</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D133" s="4">
-        <v>3</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F133" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="28"/>
+      <c r="E133" s="4">
+        <v>3</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -2952,18 +3150,18 @@
         <v>6</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D134" s="4">
-        <v>3</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F134" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="28"/>
+      <c r="E134" s="4">
+        <v>3</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -2971,18 +3169,18 @@
         <v>7</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D135" s="4">
-        <v>3</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F135" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" s="28"/>
+      <c r="E135" s="4">
+        <v>3</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,18 +3188,18 @@
         <v>8</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D136" s="4">
-        <v>3</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F136" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="28"/>
+      <c r="E136" s="4">
+        <v>3</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3009,18 +3207,18 @@
         <v>9</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D137" s="4">
+        <v>53</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="28"/>
+      <c r="E137" s="4">
         <v>4</v>
       </c>
-      <c r="E137" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F137" s="11"/>
+      <c r="F137" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3028,18 +3226,18 @@
         <v>10</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D138" s="4">
-        <v>3</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F138" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" s="28"/>
+      <c r="E138" s="4">
+        <v>3</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,18 +3245,18 @@
         <v>11</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D139" s="4">
-        <v>3</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F139" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="28"/>
+      <c r="E139" s="4">
+        <v>3</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,18 +3264,18 @@
         <v>12</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D140" s="4">
-        <v>3</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F140" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" s="28"/>
+      <c r="E140" s="4">
+        <v>3</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,18 +3283,18 @@
         <v>13</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D141" s="4">
-        <v>3</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F141" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" s="28"/>
+      <c r="E141" s="4">
+        <v>3</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,18 +3302,18 @@
         <v>14</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D142" s="4">
-        <v>3</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F142" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" s="28"/>
+      <c r="E142" s="4">
+        <v>3</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,18 +3321,18 @@
         <v>15</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D143" s="4">
-        <v>3</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F143" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="28"/>
+      <c r="E143" s="4">
+        <v>3</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3142,18 +3340,18 @@
         <v>16</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D144" s="4">
+        <v>53</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="28"/>
+      <c r="E144" s="4">
         <v>4</v>
       </c>
-      <c r="E144" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F144" s="3"/>
+      <c r="F144" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,26 +3359,26 @@
         <v>17</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D145" s="4">
-        <v>3</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F145" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="28"/>
+      <c r="E145" s="4">
+        <v>3</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="4"/>
       <c r="F146" s="3"/>
       <c r="G146" s="5"/>
     </row>
@@ -3189,18 +3387,18 @@
         <v>18</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147" s="4">
-        <v>3</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F147" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="28"/>
+      <c r="E147" s="4">
+        <v>3</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3208,18 +3406,18 @@
         <v>19</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" s="4">
-        <v>3</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F148" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="28"/>
+      <c r="E148" s="4">
+        <v>3</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,18 +3425,18 @@
         <v>20</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="4">
-        <v>3</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F149" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="28"/>
+      <c r="E149" s="4">
+        <v>3</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3246,18 +3444,18 @@
         <v>21</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="4">
-        <v>3</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F150" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="28"/>
+      <c r="E150" s="4">
+        <v>3</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,18 +3463,18 @@
         <v>22</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" s="4">
-        <v>3</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F151" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="28"/>
+      <c r="E151" s="4">
+        <v>3</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,26 +3482,26 @@
         <v>23</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" s="4">
-        <v>3</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F152" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="28"/>
+      <c r="E152" s="4">
+        <v>3</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="3"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="4"/>
       <c r="F153" s="3"/>
       <c r="G153" s="5"/>
     </row>
@@ -3312,18 +3510,18 @@
         <v>24</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="4">
-        <v>3</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F154" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="28"/>
+      <c r="E154" s="4">
+        <v>3</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -3331,18 +3529,18 @@
         <v>25</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="4">
-        <v>3</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F155" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="28"/>
+      <c r="E155" s="4">
+        <v>3</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -3350,18 +3548,18 @@
         <v>26</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="4">
-        <v>3</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F156" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="28"/>
+      <c r="E156" s="4">
+        <v>3</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,18 +3567,18 @@
         <v>27</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="4">
-        <v>3</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F157" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="28"/>
+      <c r="E157" s="4">
+        <v>3</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,31 +3586,83 @@
         <v>28</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="4">
-        <v>3</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F158" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="28"/>
+      <c r="E158" s="4">
+        <v>3</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E159" s="14"/>
+      <c r="A159" s="3">
+        <v>29</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D159" s="28"/>
+      <c r="E159" s="4">
+        <v>4</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E160" s="14"/>
+      <c r="A160" s="3">
+        <v>30</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="28"/>
+      <c r="E160" s="4">
+        <v>5</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>31</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="28"/>
+      <c r="E161" s="4">
+        <v>6</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G161" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B126:C126"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
